--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R208_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R208_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1228,10 +1240,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1275,28 +1287,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1321,28 +1333,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1488,10 +1500,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1535,28 +1547,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1581,28 +1593,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2618,10 +2630,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="J86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2665,28 +2677,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2711,28 +2723,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3197,10 +3209,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="J106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3244,28 +3256,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3290,28 +3302,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3515,10 +3527,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="J117" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3562,28 +3574,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3608,28 +3620,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3717,10 +3729,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
+      <c r="J124" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K124" s="2" t="s">
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3764,28 +3776,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3810,28 +3822,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4383,10 +4395,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
+      <c r="J147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4430,28 +4442,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4476,28 +4488,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4643,10 +4655,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
